--- a/Misc-Knowledge-Links.xlsx
+++ b/Misc-Knowledge-Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabya\gitrepos\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F54920-E209-4722-AD27-2382ECADDE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C09A8D-41D3-42C4-807E-185D9DC8B7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{21D15681-6EA7-4197-97B9-FD00DBE7A6A9}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="155">
   <si>
     <t>Serial No</t>
   </si>
@@ -43,18 +43,9 @@
     <t>URL</t>
   </si>
   <si>
-    <t>CURSOR</t>
-  </si>
-  <si>
     <t>SOURCE</t>
   </si>
   <si>
-    <t>TABLE Operator</t>
-  </si>
-  <si>
-    <t>Liquibase</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -64,18 +55,6 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>LATERAL JOIN</t>
-  </si>
-  <si>
-    <t>Collection</t>
-  </si>
-  <si>
-    <t>Object Type</t>
-  </si>
-  <si>
-    <t>Script</t>
-  </si>
-  <si>
     <t>Computer Science</t>
   </si>
   <si>
@@ -265,7 +244,253 @@
     <t>NYT</t>
   </si>
   <si>
-    <t>ddd</t>
+    <t>https://futurism.com/the-byte/ai-models-rebuilding-problem</t>
+  </si>
+  <si>
+    <t>There’s a Humongous Problem With AI Models: They Need to Be Entirely Rebuilt Every Time They’re Updated</t>
+  </si>
+  <si>
+    <t>AI Issues</t>
+  </si>
+  <si>
+    <t>When AI Is Trained With AI-Generated Data, It Starts Spouting Gibberish</t>
+  </si>
+  <si>
+    <t>https://futurism.com/the-byte/ai-trained-with-ai-generated-data-gibberish</t>
+  </si>
+  <si>
+    <t>Core Dumped - Youtube Channel</t>
+  </si>
+  <si>
+    <t>Youtube Channel</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@CoreDumpped/videos</t>
+  </si>
+  <si>
+    <t>Why Democracy Is Mathematically Impossible</t>
+  </si>
+  <si>
+    <t>Democracy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qf7ws2DF-zk</t>
+  </si>
+  <si>
+    <t>Taking Money Seriously</t>
+  </si>
+  <si>
+    <t>https://www.phenomenalworld.org/analysis/taking-money-seriously/</t>
+  </si>
+  <si>
+    <t>Political Economy</t>
+  </si>
+  <si>
+    <t>Phenomenal World</t>
+  </si>
+  <si>
+    <t>Catching up and falling behind</t>
+  </si>
+  <si>
+    <t>https://thenextrecession.wordpress.com/2024/07/17/catching-up-and-falling-behind/</t>
+  </si>
+  <si>
+    <t>The Next Recession Blog</t>
+  </si>
+  <si>
+    <t>Michael Roberts</t>
+  </si>
+  <si>
+    <t>10 reasons why AI may be overrated</t>
+  </si>
+  <si>
+    <t>https://www.npr.org/sections/planet-money/2024/08/06/g-s1-15245/10-reasons-why-ai-may-be-overrated-artificial-intelligence</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>Paul Robeson Jr, Trotskyites, and Anti-Stalinism</t>
+  </si>
+  <si>
+    <t>Gorver Furr Blogs</t>
+  </si>
+  <si>
+    <t>Stalin</t>
+  </si>
+  <si>
+    <t>Grover Furr</t>
+  </si>
+  <si>
+    <t>https://msuweb.montclair.edu/~furrg/research/antistalinism_talk_033124.html</t>
+  </si>
+  <si>
+    <t>https://www.chicagobooth.edu/review/why-hasnt-technology-sped-productivity</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Why Hasn’t Technology Sped Up Productivity?</t>
+  </si>
+  <si>
+    <t>Chicago Booth</t>
+  </si>
+  <si>
+    <t>The Left Can’t Cede Patriotism to the Right</t>
+  </si>
+  <si>
+    <t>https://jacobin.com/2024/09/patriotism-left-wing-nationalist-politics</t>
+  </si>
+  <si>
+    <t>Covid origin: Why the Wuhan lab-leak theory is so disputed</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/news/world-asia-china-57268111</t>
+  </si>
+  <si>
+    <t>BBC</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Covid</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>CPC</t>
+  </si>
+  <si>
+    <t>THEPLANNINGMOTIVE.COM</t>
+  </si>
+  <si>
+    <t>https://theplanningmotive.com/</t>
+  </si>
+  <si>
+    <t>Marxist Economy - Brian Green</t>
+  </si>
+  <si>
+    <t>Voronoi</t>
+  </si>
+  <si>
+    <t>Coporate</t>
+  </si>
+  <si>
+    <t>Capitalism</t>
+  </si>
+  <si>
+    <t>CO2 Emissions of the World's Biggest Fashion Companies</t>
+  </si>
+  <si>
+    <t>https://www.voronoiapp.com/climate/CO2-Emissions-of-the-Worlds-Biggest-Fashion-Companies-1159#visualization</t>
+  </si>
+  <si>
+    <t>Greater China: The OPEC of Silicon Chips</t>
+  </si>
+  <si>
+    <t>Semiconductor</t>
+  </si>
+  <si>
+    <t>https://www.voronoiapp.com/technology/-Greater-China-The-OPEC-of-Silicon-Chips-2592</t>
+  </si>
+  <si>
+    <t>Socialism in One Country #Facts | "On the Final Victory of Socialism in the USSR" (1938) by Stalin</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wBNwMtE1P9Q</t>
+  </si>
+  <si>
+    <t>Socialism for All - YT</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>Soviet Union</t>
+  </si>
+  <si>
+    <t>CMake Tutorial for Absolute Beginners - From GCC to CMake including Make and Ninja</t>
+  </si>
+  <si>
+    <t>Gary Explains - YT</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NGPo7mz1oa4</t>
+  </si>
+  <si>
+    <t>why do header files even exist?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tOQZlD-0Scc</t>
+  </si>
+  <si>
+    <t>Low Level</t>
+  </si>
+  <si>
+    <t>Who has contributed most to global CO2 emissions?</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/contributed-most-global-co2</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/</t>
+  </si>
+  <si>
+    <t>CO2 Emission</t>
+  </si>
+  <si>
+    <t>Michael Roberts economist</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@michaelrobertseconomist9203/videos</t>
+  </si>
+  <si>
+    <t>Stack, Heap, and Static Memory</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NnLdGKoz1ls&amp;list=PLai5B987bZ9BnS7dBlTF9HRop55vYUL7r&amp;index=22</t>
+  </si>
+  <si>
+    <t>Physics by Alexander FufaeV</t>
+  </si>
+  <si>
+    <t>MISC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@fufaev-alexander/playlists</t>
+  </si>
+  <si>
+    <t>Paul Cockshott</t>
+  </si>
+  <si>
+    <t>Paul Cockshott - Vlog</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@paulcockshott8733/videos</t>
+  </si>
+  <si>
+    <t>The Long Depression of 1873 - Sydney Pollard</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ztbEldtbMqo</t>
+  </si>
+  <si>
+    <t>Taimur Rahman</t>
+  </si>
+  <si>
+    <t>Why Am I Not a Trotskyist?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wqhc--SWIE8</t>
+  </si>
+  <si>
+    <t>AI, work and the economy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SQ4V1M-Wvbo</t>
   </si>
 </sst>
 </file>
@@ -354,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -365,6 +590,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -747,16 +975,16 @@
   <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.1796875" customWidth="1"/>
     <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" customWidth="1"/>
     <col min="5" max="5" width="47.453125" customWidth="1"/>
     <col min="6" max="6" width="103.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -766,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -783,342 +1011,613 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="F17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="F19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="F20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="F21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="F22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="F23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="F24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="F25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="D26" s="5"/>
-      <c r="F26" s="1"/>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="F27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="F28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="F29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="F30" s="1"/>
+      <c r="B30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="F31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="F32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="F33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="F34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="F35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="F36" s="1"/>
+      <c r="B36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="F37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
@@ -1548,26 +2047,52 @@
     <hyperlink ref="F10" r:id="rId9" xr:uid="{C3836E23-2C50-48B1-92F4-5AF0D32774E3}"/>
     <hyperlink ref="F11" r:id="rId10" xr:uid="{D8C2E9BC-7B40-4D32-B389-9713E7583F0E}"/>
     <hyperlink ref="F12" r:id="rId11" xr:uid="{D9A89029-CF5B-466C-B064-6AAFECA25E0B}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{A255B1CB-6A3E-4FF6-998F-389D302CC5B8}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{33FD57F3-BD60-4B82-B65F-6624D749C461}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{B82F2157-08EC-4D98-9541-BB022DA1C0FE}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{C9642F52-127E-4D66-B346-CACD9B5CBCFA}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{EC3FE951-F136-462E-BA52-41C84BDBFFC6}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{1265F56E-F74C-47D0-8B34-77F6A8C3FEEE}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{E60CADCC-61D4-446E-AF76-73381BF9BEB4}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{BED44D2C-511B-49CA-B8B3-3D0BEB5EA123}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{B2421C1B-CCF9-4107-A52D-0D2431203586}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{7495B2BB-F193-4AAB-90C2-C050138B87D0}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{01802292-8D3E-4354-A674-F22FE6660A73}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{9595CCF8-86D5-4E3A-8184-6886A0C7BD1A}"/>
+    <hyperlink ref="F25" r:id="rId24" location="visualization" xr:uid="{80FC3F42-3A96-4612-9E3E-C69C7B82A899}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{41238729-9DF4-4F01-816F-AB586788F153}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{B0C557E6-82B1-427C-B4BC-53E10ABE3963}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{7C318DE5-B909-4699-9606-5372496D9689}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{1115344F-870D-4D2F-8ACB-4DE2F8315FC6}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{E6B9FBC7-5AAC-483A-9560-BDDA4E3724BE}"/>
+    <hyperlink ref="B30" r:id="rId30" xr:uid="{BD154864-CA6E-463C-A62B-AD39572F3CA5}"/>
+    <hyperlink ref="F31" r:id="rId31" xr:uid="{D17A42FD-97A0-4B27-B999-0960E45955A4}"/>
+    <hyperlink ref="F32" r:id="rId32" xr:uid="{91F7B60A-5501-4B4C-98A2-A45B74E8394C}"/>
+    <hyperlink ref="F33" r:id="rId33" xr:uid="{3F11562A-CED8-46C0-91FF-D91F045EF7A7}"/>
+    <hyperlink ref="F34" r:id="rId34" xr:uid="{099A39A0-F41D-4532-B867-90DDEA7D3003}"/>
+    <hyperlink ref="F35" r:id="rId35" xr:uid="{BAA9098A-A41C-4208-B136-988F3340C15D}"/>
+    <hyperlink ref="F36" r:id="rId36" xr:uid="{F6F5720D-6DB4-436E-8EC2-59E86BE34570}"/>
+    <hyperlink ref="F37" r:id="rId37" xr:uid="{31DBCC9F-B416-481F-BB1C-773BEAAC9CCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId39"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9F62F5C-E13A-4017-8F5B-D791B22B6DC3}">
+          <x14:formula1>
+            <xm:f>Values!$E$4:$E$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D110</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B86FB78-95D8-4FFF-8DB6-A12E50721AA6}">
           <x14:formula1>
-            <xm:f>Values!$D$4:$D$16</xm:f>
+            <xm:f>Values!$D$4:$D$21</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C110</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9F62F5C-E13A-4017-8F5B-D791B22B6DC3}">
-          <x14:formula1>
-            <xm:f>Values!$E$4:$E$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D110</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1577,44 +2102,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A6014D-2E27-4F54-8034-C9E495B040EE}">
-  <dimension ref="C3:E38"/>
+  <dimension ref="C3:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.35">
@@ -1622,155 +2147,222 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
-        <v>7</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E40" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
